--- a/A_prepost_processing/UWG_Sensitivity.xlsx
+++ b/A_prepost_processing/UWG_Sensitivity.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wulic\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wulic\Documents\GitHub\urban_climate_and_who\A_prepost_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6471684C-CABF-4A08-91B1-9501E6D80908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C763C706-A365-4289-8A6E-B76C5B3FB1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -457,6 +457,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-9A60-4158-ABB8-7F87C6C53773}"/>
                 </c:ext>
@@ -485,6 +486,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-9A60-4158-ABB8-7F87C6C53773}"/>
                 </c:ext>
@@ -513,6 +515,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-9A60-4158-ABB8-7F87C6C53773}"/>
                 </c:ext>
@@ -541,6 +544,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-9A60-4158-ABB8-7F87C6C53773}"/>
                 </c:ext>
@@ -569,6 +573,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-9A60-4158-ABB8-7F87C6C53773}"/>
                 </c:ext>
@@ -998,15 +1003,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>573741</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>23100</xdr:rowOff>
+      <xdr:rowOff>139641</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>110220</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>538331</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47467</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1333,7 +1338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
